--- a/2014-01-30-founder-experience/tables.xlsx
+++ b/2014-01-30-founder-experience/tables.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="17000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="17000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Age" sheetId="2" r:id="rId2"/>
     <sheet name="Previous companies raw" sheetId="3" r:id="rId3"/>
     <sheet name="Previous companies chart" sheetId="4" r:id="rId4"/>
-    <sheet name="Successful exit rates" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>people</t>
   </si>
@@ -116,18 +115,6 @@
   </si>
   <si>
     <t>Order of company founding</t>
-  </si>
-  <si>
-    <t>No previous experience</t>
-  </si>
-  <si>
-    <t>Started company with exit</t>
-  </si>
-  <si>
-    <t>Future Exit Percent</t>
-  </si>
-  <si>
-    <t>Started a company but has no previous exits</t>
   </si>
 </sst>
 </file>
@@ -136,7 +123,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -294,12 +281,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -312,21 +299,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,6 +318,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -619,11 +605,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2143944872"/>
-        <c:axId val="-2143942600"/>
+        <c:axId val="2140472216"/>
+        <c:axId val="2141127576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143944872"/>
+        <c:axId val="2140472216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +625,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2143942600"/>
+        <c:crossAx val="2141127576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -647,7 +633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143942600"/>
+        <c:axId val="2141127576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -675,7 +661,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2143944872"/>
+        <c:crossAx val="2140472216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,11 +902,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2143809304"/>
-        <c:axId val="-2143888856"/>
+        <c:axId val="2140056760"/>
+        <c:axId val="2086634728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143809304"/>
+        <c:axId val="2140056760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,7 +922,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2143888856"/>
+        <c:crossAx val="2086634728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -944,7 +930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143888856"/>
+        <c:axId val="2086634728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +956,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2143809304"/>
+        <c:crossAx val="2140056760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1000,191 +986,6 @@
       </a:solidFill>
     </a:ln>
   </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200">
-          <a:latin typeface="Geneva"/>
-          <a:cs typeface="Geneva"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.239193480039025"/>
-          <c:y val="0.064046859996159"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.31966730066126"/>
-          <c:y val="0.175932654759618"/>
-          <c:w val="0.442638140194929"/>
-          <c:h val="0.530927341399398"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Successful exit rates'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Future Exit Percent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="345D63"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Successful exit rates'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>No previous experience</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Started a company but has no previous exits</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Started company with exit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Successful exit rates'!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.0493715576895919</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0691996766370251</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.138059701492537</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2145191224"/>
-        <c:axId val="2143989512"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2145191224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143989512"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2143989512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="-2145191224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1263,41 +1064,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1640,24 +1406,24 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:8" ht="18">
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="4:8" ht="32" customHeight="1">
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1747,24 +1513,24 @@
       </c>
     </row>
     <row r="17" spans="4:8" ht="18">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="4:8" ht="31" customHeight="1">
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1863,58 +1629,58 @@
     <row r="31" spans="4:8" ht="16">
       <c r="D31" s="1"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="4:8" ht="16">
       <c r="D32" s="1"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="4:8" ht="16">
       <c r="D33" s="1"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="4:8" ht="16">
       <c r="D34" s="1"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="4:8" ht="16">
       <c r="D35" s="1"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="4:8" ht="16">
       <c r="D36" s="1"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="4:8" ht="16">
       <c r="D37" s="1"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="4:8" ht="16">
       <c r="D38" s="1"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="46" spans="4:8" ht="55" customHeight="1">
       <c r="D46" s="5"/>
@@ -1923,30 +1689,30 @@
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="4:8" ht="16">
-      <c r="D47" s="14"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="4"/>
       <c r="F47" s="3"/>
       <c r="G47" s="2"/>
     </row>
     <row r="48" spans="4:8" ht="16">
-      <c r="D48" s="14"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="4"/>
       <c r="F48" s="3"/>
       <c r="G48" s="2"/>
     </row>
     <row r="49" spans="4:8" ht="16">
-      <c r="D49" s="14"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="4"/>
       <c r="F49" s="3"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="15"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="4:8" ht="16">
-      <c r="D50" s="14"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="4"/>
       <c r="F50" s="3"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="15"/>
+      <c r="H50" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1970,62 +1736,62 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -2037,98 +1803,98 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>0.64833759590792805</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>0.57983193277310896</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>0.68816530995616798</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>0.74973488865323401</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16">
       <c r="A11" s="1"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>0.80701754385964897</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>0.81739130434782603</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16">
       <c r="A12" s="1"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>0.68627450980392202</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>1.2898550724637701</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <v>6.6496163682864498E-2</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>6.4425770308123201E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16">
       <c r="A14" s="1"/>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="19">
         <v>5.8860363180964298E-2</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>7.3170731707317097E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16">
       <c r="A15" s="1"/>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="19">
         <v>4.3062200956937802E-2</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>5.8695652173913003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="19">
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>4.3478260869565202E-2</v>
       </c>
     </row>
@@ -2446,8 +2212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2473,125 +2239,125 @@
   <sheetData>
     <row r="1" spans="2:8" ht="29" customHeight="1"/>
     <row r="2" spans="2:8" ht="18">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="10" customHeight="1"/>
     <row r="4" spans="2:8" ht="16">
       <c r="B4" s="1"/>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="2:8" ht="16">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>1</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="15">
         <v>2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="15">
         <v>3</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <v>4</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="16">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>0.77274645764244798</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>0.80019636720667697</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <v>0.82986111111111105</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <v>0.61224489795918402</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <v>0.63157894736842102</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="16">
-      <c r="B7" s="17"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21">
+      <c r="D7" s="18"/>
+      <c r="E7" s="18">
         <v>0.98369829683698295</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <v>0.932885906040268</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <v>0.86399999999999999</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>0.51111111111111096</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="16">
-      <c r="B8" s="17"/>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21">
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18">
         <v>0.98767460969597398</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <v>0.95582329317269099</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>0.81818181818181801</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="16">
-      <c r="B9" s="17"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21">
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
         <v>1.06213017751479</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>0.8515625</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="16">
-      <c r="B10" s="17"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18">
         <v>1.13664596273292</v>
       </c>
     </row>
@@ -2606,9 +2372,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2620,55 +2386,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="10">
-        <v>4.9371557689591901E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="10">
-        <v>6.9199676637025101E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="10">
-        <v>0.13805970149253699</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>